--- a/Thông tin.xlsx
+++ b/Thông tin.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Mã phòng</t>
   </si>
@@ -44,82 +44,100 @@
     <t>Tình trạng</t>
   </si>
   <si>
-    <t>533394</t>
-  </si>
-  <si>
-    <t>Vui lên đi em ơi</t>
-  </si>
-  <si>
-    <t>900.000 VNĐ</t>
+    <t>373697</t>
+  </si>
+  <si>
+    <t>Nguyễn Huệ</t>
+  </si>
+  <si>
+    <t>500.000 VNĐ</t>
+  </si>
+  <si>
+    <t>0 VNĐ</t>
+  </si>
+  <si>
+    <t>Chưa nộp</t>
+  </si>
+  <si>
+    <t>144620</t>
+  </si>
+  <si>
+    <t>Bùi Xuân</t>
+  </si>
+  <si>
+    <t>50.000 VNĐ</t>
+  </si>
+  <si>
+    <t>10.200.202 VNĐ</t>
+  </si>
+  <si>
+    <t>1.818.221 VNĐ</t>
+  </si>
+  <si>
+    <t>30.000 VNĐ</t>
+  </si>
+  <si>
+    <t>20.000 VNĐ</t>
+  </si>
+  <si>
+    <t>12.618.423 VNĐ</t>
+  </si>
+  <si>
+    <t>Đã nộp</t>
+  </si>
+  <si>
+    <t>134133</t>
+  </si>
+  <si>
+    <t>Nguyễn Trãi</t>
+  </si>
+  <si>
+    <t>3.000.000 VNĐ</t>
   </si>
   <si>
     <t>100.000 VNĐ</t>
   </si>
   <si>
-    <t>40.000 VNĐ</t>
-  </si>
-  <si>
-    <t>700.000 VNĐ</t>
-  </si>
-  <si>
-    <t>300.000 VNĐ</t>
-  </si>
-  <si>
-    <t>150.000 VNĐ</t>
-  </si>
-  <si>
-    <t>2.190.000 VNĐ</t>
-  </si>
-  <si>
-    <t>Đã nộp</t>
-  </si>
-  <si>
-    <t>788675</t>
-  </si>
-  <si>
-    <t>Vui lên đi em</t>
-  </si>
-  <si>
-    <t>591708</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A</t>
+    <t>800.000 VNĐ</t>
+  </si>
+  <si>
+    <t>102.022 VNĐ</t>
+  </si>
+  <si>
+    <t>4.052.022 VNĐ</t>
+  </si>
+  <si>
+    <t>140764</t>
+  </si>
+  <si>
+    <t>Phạm Thị Nga</t>
+  </si>
+  <si>
+    <t>2.000.000 VNĐ</t>
+  </si>
+  <si>
+    <t>10.000 VNĐ</t>
+  </si>
+  <si>
+    <t>7.000 VNĐ</t>
+  </si>
+  <si>
+    <t>2.267.000 VNĐ</t>
+  </si>
+  <si>
+    <t>126999</t>
+  </si>
+  <si>
+    <t>Phạm Tuân</t>
   </si>
   <si>
     <t>1.000.000 VNĐ</t>
   </si>
   <si>
-    <t>500.000 VNĐ</t>
-  </si>
-  <si>
-    <t>105.005 VNĐ</t>
-  </si>
-  <si>
-    <t>1.500.000 VNĐ</t>
-  </si>
-  <si>
-    <t>600.000 VNĐ</t>
-  </si>
-  <si>
-    <t>4.705.005 VNĐ</t>
-  </si>
-  <si>
-    <t>Chưa nộp</t>
-  </si>
-  <si>
-    <t>441310</t>
-  </si>
-  <si>
-    <t>Huỳnh Ngọc Hiệu</t>
-  </si>
-  <si>
-    <t>20.000 VNĐ</t>
-  </si>
-  <si>
-    <t>400.000 VNĐ</t>
-  </si>
-  <si>
-    <t>2.620.000 VNĐ</t>
+    <t>32.000 VNĐ</t>
+  </si>
+  <si>
+    <t>1.752.000 VNĐ</t>
   </si>
 </sst>
 </file>
@@ -164,7 +182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -216,86 +234,86 @@
         <v>13</v>
       </c>
       <c r="E2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -306,28 +324,60 @@
         <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>27</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Thông tin.xlsx
+++ b/Thông tin.xlsx
@@ -56,6 +56,12 @@
     <t>0 VNĐ</t>
   </si>
   <si>
+    <t>1.100.000 VNĐ</t>
+  </si>
+  <si>
+    <t>1.600.000 VNĐ</t>
+  </si>
+  <si>
     <t>Chưa nộp</t>
   </si>
   <si>
@@ -77,67 +83,61 @@
     <t>30.000 VNĐ</t>
   </si>
   <si>
+    <t>1.050.000 VNĐ</t>
+  </si>
+  <si>
+    <t>13.648.423 VNĐ</t>
+  </si>
+  <si>
+    <t>Đã nộp</t>
+  </si>
+  <si>
+    <t>134133</t>
+  </si>
+  <si>
+    <t>Nguyễn Trãi</t>
+  </si>
+  <si>
+    <t>100.000 VNĐ</t>
+  </si>
+  <si>
+    <t>800.000 VNĐ</t>
+  </si>
+  <si>
+    <t>102.022 VNĐ</t>
+  </si>
+  <si>
+    <t>400.000 VNĐ</t>
+  </si>
+  <si>
+    <t>1.932.022 VNĐ</t>
+  </si>
+  <si>
+    <t>140764</t>
+  </si>
+  <si>
+    <t>Phạm Thị Nga</t>
+  </si>
+  <si>
+    <t>10.000 VNĐ</t>
+  </si>
+  <si>
+    <t>900.000 VNĐ</t>
+  </si>
+  <si>
+    <t>1.660.000 VNĐ</t>
+  </si>
+  <si>
+    <t>126999</t>
+  </si>
+  <si>
+    <t>Phạm Tuân</t>
+  </si>
+  <si>
     <t>20.000 VNĐ</t>
   </si>
   <si>
-    <t>12.618.423 VNĐ</t>
-  </si>
-  <si>
-    <t>Đã nộp</t>
-  </si>
-  <si>
-    <t>134133</t>
-  </si>
-  <si>
-    <t>Nguyễn Trãi</t>
-  </si>
-  <si>
-    <t>3.000.000 VNĐ</t>
-  </si>
-  <si>
-    <t>100.000 VNĐ</t>
-  </si>
-  <si>
-    <t>800.000 VNĐ</t>
-  </si>
-  <si>
-    <t>102.022 VNĐ</t>
-  </si>
-  <si>
-    <t>4.052.022 VNĐ</t>
-  </si>
-  <si>
-    <t>140764</t>
-  </si>
-  <si>
-    <t>Phạm Thị Nga</t>
-  </si>
-  <si>
-    <t>2.000.000 VNĐ</t>
-  </si>
-  <si>
-    <t>10.000 VNĐ</t>
-  </si>
-  <si>
-    <t>7.000 VNĐ</t>
-  </si>
-  <si>
-    <t>2.267.000 VNĐ</t>
-  </si>
-  <si>
-    <t>126999</t>
-  </si>
-  <si>
-    <t>Phạm Tuân</t>
-  </si>
-  <si>
-    <t>1.000.000 VNĐ</t>
-  </si>
-  <si>
-    <t>32.000 VNĐ</t>
-  </si>
-  <si>
-    <t>1.752.000 VNĐ</t>
+    <t>2.320.000 VNĐ</t>
   </si>
 </sst>
 </file>
@@ -243,141 +243,141 @@
         <v>13</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s" s="0">
         <v>25</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>41</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
